--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1069,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="D13">
-        <v>0.9926792305866942</v>
+        <v>0.9926792305866939</v>
       </c>
       <c r="E13">
         <v>0.9924176336895202</v>
@@ -1081,7 +1081,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="H13">
-        <v>0.9926792305866942</v>
+        <v>0.9926792305866939</v>
       </c>
       <c r="I13">
         <v>0.9925580205193487</v>
@@ -1099,7 +1099,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="N13">
-        <v>0.9925484321381072</v>
+        <v>0.9925484321381071</v>
       </c>
       <c r="O13">
         <v>0.9923946839243444</v>
@@ -1175,7 +1175,7 @@
         <v>0.9914569489173536</v>
       </c>
       <c r="F15">
-        <v>0.9928943056861635</v>
+        <v>0.9928943056861634</v>
       </c>
       <c r="G15">
         <v>0.9887333821653637</v>
@@ -1187,13 +1187,13 @@
         <v>0.9905102786960728</v>
       </c>
       <c r="J15">
-        <v>0.9939504500144283</v>
+        <v>0.9939504500144281</v>
       </c>
       <c r="K15">
         <v>0.9911396292117644</v>
       </c>
       <c r="L15">
-        <v>0.9963040968158871</v>
+        <v>0.9963040968158872</v>
       </c>
       <c r="M15">
         <v>0.9887333821653637</v>
@@ -1202,10 +1202,60 @@
         <v>0.9945322373094208</v>
       </c>
       <c r="O15">
-        <v>0.9926730406175922</v>
+        <v>0.9926730406175921</v>
       </c>
       <c r="P15">
         <v>0.9928245771510651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="D16">
+        <v>0.9879300160609247</v>
+      </c>
+      <c r="E16">
+        <v>0.995896977005419</v>
+      </c>
+      <c r="F16">
+        <v>0.9946912582886986</v>
+      </c>
+      <c r="G16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="H16">
+        <v>0.9879300160609247</v>
+      </c>
+      <c r="I16">
+        <v>0.9921929612759364</v>
+      </c>
+      <c r="J16">
+        <v>0.9948219900607478</v>
+      </c>
+      <c r="K16">
+        <v>0.9946551405311592</v>
+      </c>
+      <c r="L16">
+        <v>0.9824036829982525</v>
+      </c>
+      <c r="M16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="N16">
+        <v>0.9919134965331718</v>
+      </c>
+      <c r="O16">
+        <v>0.9927233927577359</v>
+      </c>
+      <c r="P16">
+        <v>0.9918709182371299</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9923753196759012</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
@@ -1072,7 +1072,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="D13">
-        <v>0.9926792305866939</v>
+        <v>0.9926792305866942</v>
       </c>
       <c r="E13">
         <v>0.9924176336895202</v>
@@ -1084,7 +1084,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="H13">
-        <v>0.9926792305866939</v>
+        <v>0.9926792305866942</v>
       </c>
       <c r="I13">
         <v>0.9925580205193487</v>
@@ -1102,7 +1102,7 @@
         <v>0.9926994209314527</v>
       </c>
       <c r="N13">
-        <v>0.9925484321381071</v>
+        <v>0.9925484321381072</v>
       </c>
       <c r="O13">
         <v>0.9923946839243444</v>
@@ -1178,7 +1178,7 @@
         <v>0.9914569489173536</v>
       </c>
       <c r="F15">
-        <v>0.9928943056861634</v>
+        <v>0.9928943056861635</v>
       </c>
       <c r="G15">
         <v>0.9887333821653637</v>
@@ -1190,13 +1190,13 @@
         <v>0.9905102786960728</v>
       </c>
       <c r="J15">
-        <v>0.9939504500144281</v>
+        <v>0.9939504500144283</v>
       </c>
       <c r="K15">
         <v>0.9911396292117644</v>
       </c>
       <c r="L15">
-        <v>0.9963040968158872</v>
+        <v>0.9963040968158871</v>
       </c>
       <c r="M15">
         <v>0.9887333821653637</v>
@@ -1205,7 +1205,7 @@
         <v>0.9945322373094208</v>
       </c>
       <c r="O15">
-        <v>0.9926730406175921</v>
+        <v>0.9926730406175922</v>
       </c>
       <c r="P15">
         <v>0.9928245771510651</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9923000000000011</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="D10">
-        <v>0.9756039999999983</v>
+        <v>0.9879300160609247</v>
       </c>
       <c r="E10">
-        <v>1.000008</v>
+        <v>0.995896977005419</v>
       </c>
       <c r="F10">
-        <v>0.9872840000000004</v>
+        <v>0.9946912582886986</v>
       </c>
       <c r="G10">
-        <v>0.9923000000000011</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="H10">
-        <v>0.9756039999999983</v>
+        <v>0.9879300160609247</v>
       </c>
       <c r="I10">
-        <v>0.9993879999999994</v>
+        <v>0.9921929612759364</v>
       </c>
       <c r="J10">
-        <v>0.9918760000000005</v>
+        <v>0.9948219900607478</v>
       </c>
       <c r="K10">
-        <v>0.9991759999999991</v>
+        <v>0.9946551405311592</v>
       </c>
       <c r="L10">
-        <v>0.9793559999999998</v>
+        <v>0.9824036829982525</v>
       </c>
       <c r="M10">
-        <v>0.9923000000000011</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="N10">
-        <v>0.9878059999999993</v>
+        <v>0.9919134965331718</v>
       </c>
       <c r="O10">
-        <v>0.9887990000000001</v>
+        <v>0.9927233927577359</v>
       </c>
       <c r="P10">
-        <v>0.9906239999999999</v>
+        <v>0.9918709182371299</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.007824908111867</v>
       </c>
       <c r="D11">
-        <v>0.9438874999999985</v>
+        <v>0.9765899659437869</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.9928337984043685</v>
       </c>
       <c r="F11">
-        <v>0.98</v>
+        <v>0.9890144414424805</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.007824908111867</v>
       </c>
       <c r="H11">
-        <v>0.9438874999999985</v>
+        <v>0.9765899659437869</v>
       </c>
       <c r="I11">
-        <v>1.01</v>
+        <v>0.9969096996227621</v>
       </c>
       <c r="J11">
-        <v>0.99</v>
+        <v>0.9885215246904111</v>
       </c>
       <c r="K11">
-        <v>1.01</v>
+        <v>0.9960292800793002</v>
       </c>
       <c r="L11">
-        <v>0.96</v>
+        <v>0.9799437275517902</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>1.007824908111867</v>
       </c>
       <c r="N11">
-        <v>0.9769437499999993</v>
+        <v>0.9847118821740777</v>
       </c>
       <c r="O11">
-        <v>0.9834718749999997</v>
+        <v>0.9915657784756257</v>
       </c>
       <c r="P11">
-        <v>0.9879859374999997</v>
+        <v>0.9909584182308458</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9974985830400008</v>
+        <v>1.007618925378141</v>
       </c>
       <c r="D12">
-        <v>0.964044755353595</v>
+        <v>0.9768043163281916</v>
       </c>
       <c r="E12">
-        <v>1.002897146470402</v>
+        <v>0.9928101652743769</v>
       </c>
       <c r="F12">
-        <v>0.984886727475201</v>
+        <v>0.9890278428509218</v>
       </c>
       <c r="G12">
-        <v>0.9974985830400008</v>
+        <v>1.007618925378141</v>
       </c>
       <c r="H12">
-        <v>0.964044755353595</v>
+        <v>0.9768043163281916</v>
       </c>
       <c r="I12">
-        <v>1.002694749593604</v>
+        <v>0.9968931884101567</v>
       </c>
       <c r="J12">
-        <v>0.9909551150079978</v>
+        <v>0.9885020357262566</v>
       </c>
       <c r="K12">
-        <v>1.002321419673601</v>
+        <v>0.9959866672158417</v>
       </c>
       <c r="L12">
-        <v>0.9737400070143994</v>
+        <v>0.9801553087160731</v>
       </c>
       <c r="M12">
-        <v>0.9974985830400008</v>
+        <v>1.007618925378141</v>
       </c>
       <c r="N12">
-        <v>0.9834709509119985</v>
+        <v>0.9848072408012842</v>
       </c>
       <c r="O12">
-        <v>0.9873318030847996</v>
+        <v>0.9915653124579078</v>
       </c>
       <c r="P12">
-        <v>0.9898798129536002</v>
+        <v>0.990974806237495</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9926994209314527</v>
+        <v>1.007820952547674</v>
       </c>
       <c r="D13">
-        <v>0.9926792305866942</v>
+        <v>0.9766163577266859</v>
       </c>
       <c r="E13">
-        <v>0.9924176336895202</v>
+        <v>0.9928248546740771</v>
       </c>
       <c r="F13">
-        <v>0.9917824504897105</v>
+        <v>0.9890314307499328</v>
       </c>
       <c r="G13">
-        <v>0.9926994209314527</v>
+        <v>1.007820952547674</v>
       </c>
       <c r="H13">
-        <v>0.9926792305866942</v>
+        <v>0.9766163577266859</v>
       </c>
       <c r="I13">
-        <v>0.9925580205193487</v>
+        <v>0.9968974565154913</v>
       </c>
       <c r="J13">
-        <v>0.9925931930861132</v>
+        <v>0.9885020057967278</v>
       </c>
       <c r="K13">
-        <v>0.9924170774831098</v>
+        <v>0.99598943056112</v>
       </c>
       <c r="L13">
-        <v>0.9923148522500058</v>
+        <v>0.9799857281903518</v>
       </c>
       <c r="M13">
-        <v>0.9926994209314527</v>
+        <v>1.007820952547674</v>
       </c>
       <c r="N13">
-        <v>0.9925484321381072</v>
+        <v>0.9847206062003815</v>
       </c>
       <c r="O13">
-        <v>0.9923946839243444</v>
+        <v>0.9915733989245925</v>
       </c>
       <c r="P13">
-        <v>0.9924327348794943</v>
+        <v>0.9909585270952577</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900025626663325</v>
+        <v>0.9923000000000011</v>
       </c>
       <c r="D14">
-        <v>0.9941342646830896</v>
+        <v>0.9756039999999983</v>
       </c>
       <c r="E14">
-        <v>0.9926244190266585</v>
+        <v>1.000008</v>
       </c>
       <c r="F14">
-        <v>0.9913563788377007</v>
+        <v>0.9872840000000004</v>
       </c>
       <c r="G14">
-        <v>0.9900025626663325</v>
+        <v>0.9923000000000011</v>
       </c>
       <c r="H14">
-        <v>0.9941342646830896</v>
+        <v>0.9756039999999983</v>
       </c>
       <c r="I14">
-        <v>0.9926404096185981</v>
+        <v>0.9993879999999994</v>
       </c>
       <c r="J14">
-        <v>0.9926101554921665</v>
+        <v>0.9918760000000005</v>
       </c>
       <c r="K14">
-        <v>0.9922574907241658</v>
+        <v>0.9991759999999991</v>
       </c>
       <c r="L14">
-        <v>0.9930435283609363</v>
+        <v>0.9793559999999998</v>
       </c>
       <c r="M14">
-        <v>0.9900025626663325</v>
+        <v>0.9923000000000011</v>
       </c>
       <c r="N14">
-        <v>0.9933793418548741</v>
+        <v>0.9878059999999993</v>
       </c>
       <c r="O14">
-        <v>0.9920294063034454</v>
+        <v>0.9887990000000001</v>
       </c>
       <c r="P14">
-        <v>0.992333651176206</v>
+        <v>0.9906239999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9887333821653637</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.997607525701488</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="E15">
-        <v>0.9914569489173536</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9928943056861635</v>
+        <v>0.98</v>
       </c>
       <c r="G15">
-        <v>0.9887333821653637</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.997607525701488</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="I15">
-        <v>0.9905102786960728</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>0.9939504500144283</v>
+        <v>0.99</v>
       </c>
       <c r="K15">
-        <v>0.9911396292117644</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>0.9963040968158871</v>
+        <v>0.96</v>
       </c>
       <c r="M15">
-        <v>0.9887333821653637</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9945322373094208</v>
+        <v>0.9769437499999993</v>
       </c>
       <c r="O15">
-        <v>0.9926730406175922</v>
+        <v>0.9834718749999997</v>
       </c>
       <c r="P15">
-        <v>0.9928245771510651</v>
+        <v>0.9879859374999997</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9923753196759012</v>
+        <v>0.9974985830400008</v>
       </c>
       <c r="D16">
-        <v>0.9879300160609247</v>
+        <v>0.964044755353595</v>
       </c>
       <c r="E16">
-        <v>0.995896977005419</v>
+        <v>1.002897146470402</v>
       </c>
       <c r="F16">
-        <v>0.9946912582886986</v>
+        <v>0.984886727475201</v>
       </c>
       <c r="G16">
-        <v>0.9923753196759012</v>
+        <v>0.9974985830400008</v>
       </c>
       <c r="H16">
-        <v>0.9879300160609247</v>
+        <v>0.964044755353595</v>
       </c>
       <c r="I16">
-        <v>0.9921929612759364</v>
+        <v>1.002694749593604</v>
       </c>
       <c r="J16">
-        <v>0.9948219900607478</v>
+        <v>0.9909551150079978</v>
       </c>
       <c r="K16">
-        <v>0.9946551405311592</v>
+        <v>1.002321419673601</v>
       </c>
       <c r="L16">
-        <v>0.9824036829982525</v>
+        <v>0.9737400070143994</v>
       </c>
       <c r="M16">
-        <v>0.9923753196759012</v>
+        <v>0.9974985830400008</v>
       </c>
       <c r="N16">
-        <v>0.9919134965331718</v>
+        <v>0.9834709509119985</v>
       </c>
       <c r="O16">
-        <v>0.9927233927577359</v>
+        <v>0.9873318030847996</v>
       </c>
       <c r="P16">
-        <v>0.9918709182371299</v>
+        <v>0.9898798129536002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9926994209314527</v>
+      </c>
+      <c r="D17">
+        <v>0.9926792305866939</v>
+      </c>
+      <c r="E17">
+        <v>0.9924176336895202</v>
+      </c>
+      <c r="F17">
+        <v>0.9917824504897105</v>
+      </c>
+      <c r="G17">
+        <v>0.9926994209314527</v>
+      </c>
+      <c r="H17">
+        <v>0.9926792305866939</v>
+      </c>
+      <c r="I17">
+        <v>0.9925580205193487</v>
+      </c>
+      <c r="J17">
+        <v>0.9925931930861132</v>
+      </c>
+      <c r="K17">
+        <v>0.9924170774831098</v>
+      </c>
+      <c r="L17">
+        <v>0.9923148522500058</v>
+      </c>
+      <c r="M17">
+        <v>0.9926994209314527</v>
+      </c>
+      <c r="N17">
+        <v>0.9925484321381071</v>
+      </c>
+      <c r="O17">
+        <v>0.9923946839243444</v>
+      </c>
+      <c r="P17">
+        <v>0.9924327348794943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9900025626663325</v>
+      </c>
+      <c r="D18">
+        <v>0.9941342646830896</v>
+      </c>
+      <c r="E18">
+        <v>0.9926244190266585</v>
+      </c>
+      <c r="F18">
+        <v>0.9913563788377007</v>
+      </c>
+      <c r="G18">
+        <v>0.9900025626663325</v>
+      </c>
+      <c r="H18">
+        <v>0.9941342646830896</v>
+      </c>
+      <c r="I18">
+        <v>0.9926404096185981</v>
+      </c>
+      <c r="J18">
+        <v>0.9926101554921665</v>
+      </c>
+      <c r="K18">
+        <v>0.9922574907241658</v>
+      </c>
+      <c r="L18">
+        <v>0.9930435283609363</v>
+      </c>
+      <c r="M18">
+        <v>0.9900025626663325</v>
+      </c>
+      <c r="N18">
+        <v>0.9933793418548741</v>
+      </c>
+      <c r="O18">
+        <v>0.9920294063034454</v>
+      </c>
+      <c r="P18">
+        <v>0.992333651176206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9887333821653637</v>
+      </c>
+      <c r="D19">
+        <v>0.997607525701488</v>
+      </c>
+      <c r="E19">
+        <v>0.9914569489173536</v>
+      </c>
+      <c r="F19">
+        <v>0.9928943056861634</v>
+      </c>
+      <c r="G19">
+        <v>0.9887333821653637</v>
+      </c>
+      <c r="H19">
+        <v>0.997607525701488</v>
+      </c>
+      <c r="I19">
+        <v>0.9905102786960728</v>
+      </c>
+      <c r="J19">
+        <v>0.9939504500144281</v>
+      </c>
+      <c r="K19">
+        <v>0.9911396292117644</v>
+      </c>
+      <c r="L19">
+        <v>0.9963040968158872</v>
+      </c>
+      <c r="M19">
+        <v>0.9887333821653637</v>
+      </c>
+      <c r="N19">
+        <v>0.9945322373094208</v>
+      </c>
+      <c r="O19">
+        <v>0.9926730406175921</v>
+      </c>
+      <c r="P19">
+        <v>0.9928245771510651</v>
       </c>
     </row>
   </sheetData>
